--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>切水果跑酷排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,23 +182,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,128 +493,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3.14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3.16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>3.21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3.22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3.23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3.29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>4.12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="6">
         <v>4.1500000000000004</v>
       </c>
     </row>

--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>切水果跑酷排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目工程输出，框架设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架搭建(数据存储、引擎结构)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景界面及核心玩法(地图规则、障碍物配置、人物弹跳及碰撞效果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,11 +76,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商城界面、礼包界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工程输出，框架设计，框架搭建(数据存储、引擎结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景界面及核心玩法(地图规则、障碍物配置、人物弹跳及碰撞效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无尽模式配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,15 +500,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -523,7 +519,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -532,37 +528,37 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3.21</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -570,73 +566,62 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="6">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>4.13</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="6">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6">
         <v>4.1500000000000004</v>
       </c>
     </row>

--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="5">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="6">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6">
-        <v>3.31</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">

--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商城界面、礼包界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目工程输出，框架设计，框架搭建(数据存储、引擎结构)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,10 @@
   </si>
   <si>
     <t>无尽模式配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包界面及逻辑、每日领取功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -579,8 +579,8 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
-        <v>4.0999999999999996</v>
+      <c r="C9" s="5">
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -591,15 +591,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>4.1100000000000003</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6">
         <v>4.12</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>

--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>切水果跑酷排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>礼包界面及逻辑、每日领取功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,48 +584,59 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4.12</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>4.1399999999999997</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6">
+      <c r="B14" s="3"/>
+      <c r="C14" s="6">
         <v>4.1500000000000004</v>
       </c>
     </row>

--- a/FruitPaoku/切水果跑酷排期.xlsx
+++ b/FruitPaoku/切水果跑酷排期.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
